--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_极光组.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_极光组.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -184,6 +184,19 @@
   </si>
   <si>
     <t>茅寰寰、移动组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.短信部分未完成验证，待上线后测试，如有问题补丁上线
+2.定时器异常，正在分析处理中，先用脚本实现定时器</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +397,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +489,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -832,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,7 +876,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -919,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -954,13 +970,21 @@
       <c r="L2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
-      <c r="S2" s="28"/>
+      <c r="S2" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -998,9 +1022,15 @@
       <c r="L3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
@@ -1042,9 +1072,15 @@
       <c r="L4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -1086,9 +1122,15 @@
       <c r="L5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
@@ -1130,9 +1172,15 @@
       <c r="L6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
@@ -1174,9 +1222,15 @@
       <c r="L7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
